--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nQ+kVv+bEUT9WuZfsiBAYXDBCJrqYE+fjHCgVBVHMww="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="12bNULj5JB3eEC4wu+302hNfDPMpZ/tBwAqJHhBZYj4="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,6 +21,38 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="I22">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABteb6gPY
+Maria Clara Ferreira    (2025-11-26 12:36:38)
+base finalizada</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I21">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABteb6gPU
+Maria Clara Ferreira    (2025-11-26 12:33:27)
+base finalizada.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I20">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABteb6gPQ
+Maria Clara Ferreira    (2025-11-26 12:31:57)
+Iniciada ao final do dia de ontem, ainda sem relatório</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H20">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABteb6gPM
+Maria Clara Ferreira    (2025-11-26 12:31:53)
+Iniciada ao final do dia de ontem, ainda sem relatório.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="I29">
       <text>
         <t xml:space="preserve">======
@@ -37,22 +69,6 @@
 Iniciada a pouco tempo.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I24">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-o
-Maria Clara Ferreira    (2025-11-25 21:24:28)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H24">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-k
-Maria Clara Ferreira    (2025-11-25 21:24:24)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="I27">
       <text>
         <t xml:space="preserve">======
@@ -66,38 +82,6 @@
         <t xml:space="preserve">======
 ID#AAABwwAa5-c
 Maria Clara Ferreira    (2025-11-25 20:35:54)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I17">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-Y
-Maria Clara Ferreira    (2025-11-25 20:35:43)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H17">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-U
-Maria Clara Ferreira    (2025-11-25 20:35:38)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I18">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-Q
-Maria Clara Ferreira    (2025-11-25 19:57:00)
-Iniciada a pouco tempo.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H18">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABwwAa5-M
-Maria Clara Ferreira    (2025-11-25 19:56:56)
 Iniciada a pouco tempo.</t>
       </text>
     </comment>
@@ -136,7 +120,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miuzyAzJSHKiWHxLi4fWe9JnRZnCw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miBCcGTiTnm99WQyftQL58MGCTfjA=="/>
     </ext>
   </extLst>
 </comments>
@@ -857,30 +841,30 @@
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C2" s="5">
         <v>1667.0</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D83" si="1">DIVIDE(B2,C2)</f>
-        <v>0.06358728254</v>
+        <v>0.06598680264</v>
       </c>
       <c r="E2" s="5">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" s="7">
         <v>134.0</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" ref="G2:G83" si="2">DIVIDE(E2,B2)</f>
-        <v>0.07547169811</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="8">
-        <v>2245.0</v>
+        <v>8849.0</v>
       </c>
       <c r="I2" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -908,10 +892,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="8">
-        <v>1977.0</v>
+        <v>3988.0</v>
       </c>
       <c r="I3" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1012,14 +996,14 @@
         <v>14</v>
       </c>
       <c r="B7" s="5">
-        <v>122.0</v>
+        <v>126.0</v>
       </c>
       <c r="C7" s="5">
         <v>2084.0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>0.05854126679</v>
+        <v>0.06046065259</v>
       </c>
       <c r="E7" s="5">
         <v>0.0</v>
@@ -1032,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>1474.0</v>
+        <v>3407.0</v>
       </c>
       <c r="I7" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1043,14 +1027,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="5">
-        <v>87.0</v>
+        <v>110.0</v>
       </c>
       <c r="C8" s="5">
         <v>2292.0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>0.03795811518</v>
+        <v>0.0479930192</v>
       </c>
       <c r="E8" s="5">
         <v>8.0</v>
@@ -1060,13 +1044,13 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>0.09195402299</v>
+        <v>0.07272727273</v>
       </c>
       <c r="H8" s="5">
-        <v>2321.0</v>
+        <v>4080.0</v>
       </c>
       <c r="I8" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1074,30 +1058,30 @@
         <v>16</v>
       </c>
       <c r="B9" s="5">
-        <v>54.0</v>
+        <v>71.0</v>
       </c>
       <c r="C9" s="5">
         <v>2917.0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>0.01851217004</v>
+        <v>0.02434007542</v>
       </c>
       <c r="E9" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" s="7">
         <v>200.0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>0.03703703704</v>
+        <v>0.04225352113</v>
       </c>
       <c r="H9" s="5">
-        <v>5765.0</v>
+        <v>7508.0</v>
       </c>
       <c r="I9" s="5">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1128,7 +1112,7 @@
         <v>7549.0</v>
       </c>
       <c r="I10" s="5">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1136,30 +1120,30 @@
         <v>18</v>
       </c>
       <c r="B11" s="5">
-        <v>25.0</v>
+        <v>65.0</v>
       </c>
       <c r="C11" s="5">
         <v>1459.0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>0.01713502399</v>
+        <v>0.04455106237</v>
       </c>
       <c r="E11" s="5">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" s="7">
         <v>200.0</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.1692307692</v>
       </c>
       <c r="H11" s="5">
-        <v>4976.0</v>
+        <v>6819.0</v>
       </c>
       <c r="I11" s="5">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1187,10 +1171,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="5">
-        <v>1713.0</v>
+        <v>1876.0</v>
       </c>
       <c r="I12" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1218,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="5">
-        <v>1616.0</v>
+        <v>3478.0</v>
       </c>
       <c r="I13" s="5">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1229,14 +1213,14 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C14" s="5">
         <v>1667.0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>0.008398320336</v>
+        <v>0.01139772046</v>
       </c>
       <c r="E14" s="5">
         <v>1.0</v>
@@ -1246,10 +1230,10 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>0.07142857143</v>
+        <v>0.05263157895</v>
       </c>
       <c r="H14" s="5">
-        <v>4897.0</v>
+        <v>5107.0</v>
       </c>
       <c r="I14" s="5">
         <v>8.0</v>
@@ -1291,30 +1275,30 @@
         <v>23</v>
       </c>
       <c r="B16" s="5">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C16" s="5">
         <v>2709.0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="1"/>
-        <v>0.01587301587</v>
+        <v>0.01661129568</v>
       </c>
       <c r="E16" s="5">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F16" s="7">
         <v>267.0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>0.3255813953</v>
+        <v>0.3333333333</v>
       </c>
       <c r="H16" s="8">
-        <v>6240.0</v>
+        <v>7935.0</v>
       </c>
       <c r="I16" s="5">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1341,8 +1325,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5">
+        <v>245.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -1368,8 +1356,12 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="5">
+        <v>271.0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
@@ -1396,10 +1388,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="8">
-        <v>2739.0</v>
+        <v>4538.0</v>
       </c>
       <c r="I19" s="5">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1465,14 +1457,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="5">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="C22" s="5">
         <v>1875.0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="1"/>
-        <v>0.007466666667</v>
+        <v>0.01493333333</v>
       </c>
       <c r="E22" s="5">
         <v>7.0</v>
@@ -1482,13 +1474,13 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="8">
-        <v>3467.0</v>
+        <v>4228.0</v>
       </c>
       <c r="I22" s="5">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1516,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="5">
-        <v>9793.0</v>
+        <v>11580.0</v>
       </c>
       <c r="I23" s="5">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1527,57 +1519,61 @@
         <v>31</v>
       </c>
       <c r="B24" s="5">
-        <v>180.0</v>
+        <v>252.0</v>
       </c>
       <c r="C24" s="5">
         <v>834.0</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>0.2158273381</v>
+        <v>0.3021582734</v>
       </c>
       <c r="E24" s="5">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F24" s="7">
         <v>100.0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
-        <v>0.01111111111</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>0.03571428571</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1334.0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="5">
-        <v>3.0</v>
+        <v>50.0</v>
       </c>
       <c r="C25" s="5">
         <v>3125.0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>0.00096</v>
+        <v>0.016</v>
       </c>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F25" s="7">
         <v>167.0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H25" s="5">
-        <v>2549.0</v>
+        <v>4348.0</v>
       </c>
       <c r="I25" s="5">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1605,10 +1601,10 @@
         <v>0.3333333333</v>
       </c>
       <c r="H26" s="5">
-        <v>2265.0</v>
+        <v>4496.0</v>
       </c>
       <c r="I26" s="5">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1809,30 +1805,30 @@
         <v>41</v>
       </c>
       <c r="B33" s="12">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="C33" s="12">
         <v>1459.0</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04043865661</v>
       </c>
       <c r="E33" s="12">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33" s="4">
         <v>167.0</v>
       </c>
-      <c r="G33" s="13" t="str">
+      <c r="G33" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.05084745763</v>
       </c>
       <c r="H33" s="5">
-        <v>430.0</v>
+        <v>1950.0</v>
       </c>
       <c r="I33" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -1861,10 +1857,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="5">
-        <v>347.0</v>
+        <v>2246.0</v>
       </c>
       <c r="I34" s="5">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J34" s="14"/>
     </row>
@@ -2020,10 +2016,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="5">
-        <v>2372.0</v>
+        <v>4307.0</v>
       </c>
       <c r="I39" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
@@ -2048,30 +2044,30 @@
         <v>48</v>
       </c>
       <c r="B40" s="12">
-        <v>42.0</v>
+        <v>75.0</v>
       </c>
       <c r="C40" s="12">
         <v>3125.0</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>0.01344</v>
+        <v>0.024</v>
       </c>
       <c r="E40" s="12">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F40" s="4">
         <v>200.0</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="2"/>
-        <v>0.02380952381</v>
+        <v>0.06666666667</v>
       </c>
       <c r="H40" s="5">
-        <v>5212.0</v>
+        <v>7026.0</v>
       </c>
       <c r="I40" s="5">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
@@ -2096,30 +2092,30 @@
         <v>49</v>
       </c>
       <c r="B41" s="12">
-        <v>36.0</v>
+        <v>79.0</v>
       </c>
       <c r="C41" s="12">
         <v>2709.0</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="1"/>
-        <v>0.01328903654</v>
+        <v>0.02916205242</v>
       </c>
       <c r="E41" s="12">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F41" s="4">
         <v>40.0</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1139240506</v>
       </c>
       <c r="H41" s="5">
-        <v>6753.0</v>
+        <v>8648.0</v>
       </c>
       <c r="I41" s="5">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
@@ -2144,30 +2140,30 @@
         <v>50</v>
       </c>
       <c r="B42" s="12">
-        <v>315.0</v>
+        <v>490.0</v>
       </c>
       <c r="C42" s="12">
         <v>3125.0</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>0.1008</v>
+        <v>0.1568</v>
       </c>
       <c r="E42" s="12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F42" s="4">
         <v>40.0</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="2"/>
-        <v>0.02222222222</v>
+        <v>0.01632653061</v>
       </c>
       <c r="H42" s="5">
-        <v>2646.0</v>
+        <v>4370.0</v>
       </c>
       <c r="I42" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
@@ -2192,14 +2188,14 @@
         <v>51</v>
       </c>
       <c r="B43" s="12">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="C43" s="12">
         <v>1667.0</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="1"/>
-        <v>0.01859628074</v>
+        <v>0.03299340132</v>
       </c>
       <c r="E43" s="12">
         <v>0.0</v>
@@ -2212,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="5">
-        <v>2739.0</v>
+        <v>4624.0</v>
       </c>
       <c r="I43" s="5">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
@@ -2260,10 +2256,10 @@
         <v>0.02857142857</v>
       </c>
       <c r="H44" s="5">
-        <v>2625.0</v>
+        <v>3209.0</v>
       </c>
       <c r="I44" s="5">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
@@ -2356,10 +2352,10 @@
         <v>0.3219178082</v>
       </c>
       <c r="H46" s="19">
-        <v>7218.0</v>
+        <v>8665.0</v>
       </c>
       <c r="I46" s="12">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
